--- a/唐老狮Unity教程/讲义-唐老师Unity教程/2024_12_4 14.变量的本质知识点.xlsx
+++ b/唐老狮Unity教程/讲义-唐老师Unity教程/2024_12_4 14.变量的本质知识点.xlsx
@@ -235,6 +235,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>418164</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>170695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2533650" y="16078200"/>
+          <a:ext cx="7485714" cy="6038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -527,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="R78" sqref="R77:S78"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="T96" sqref="T96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
